--- a/inst/extdata/National_schedule_of_NHS_costs_2019_error.xlsx
+++ b/inst/extdata/National_schedule_of_NHS_costs_2019_error.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sheej\Documents\Sheeja_WinLap\repos\packDAMipd\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05E990B3-B1FA-4127-A9AE-54CD2F09253E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F15096-C14C-4F5E-BE41-BD5D262D3481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EL" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>National_Average_Unit_Cost</t>
   </si>
@@ -33,11 +33,14 @@
   <si>
     <t>id</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;£&quot;#,##0.00;[Red]\-&quot;£&quot;#,##0.00"/>
   </numFmts>
@@ -879,14 +882,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -901,6 +907,9 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
